--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T14:30:36-05:00</t>
+    <t>2024-01-05T10:12:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2337,7 +2337,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
@@ -2697,7 +2697,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -3295,7 +3295,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3415,7 +3415,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -4023,7 +4023,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4143,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4387,7 +4387,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4507,7 +4507,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4749,7 +4749,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4871,7 +4871,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5115,7 +5115,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5235,7 +5235,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5357,7 +5357,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5477,7 +5477,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5597,7 +5597,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6797,7 +6797,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6917,7 +6917,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7037,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>91</v>
@@ -8019,7 +8019,7 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>458</v>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-05T10:12:51-05:00</t>
+    <t>2024-01-12T16:11:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T16:11:38-05:00</t>
+    <t>2024-01-14T20:25:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-14T20:25:13-05:00</t>
+    <t>2024-01-15T21:15:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:15:59-05:00</t>
+    <t>2024-01-15T21:38:02-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T21:38:02-05:00</t>
+    <t>2024-01-17T11:35:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-FlightItinerary.xlsx
+++ b/StructureDefinition-FlightItinerary.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T11:35:10-05:00</t>
+    <t>2024-02-16T13:20:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
